--- a/res/Catalogue grainothèque.xlsx
+++ b/res/Catalogue grainothèque.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmation\Dev_Web\vhosts\grainotheque\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC28D42-E747-413C-9277-E446DF4D2DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F93E0C-AF34-484B-9C0F-B31D283DB9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,11 +22,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Aromatiques!$A$2:$P$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fleurs horticoles et exotiques'!$A$2:$P$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fleurs sauvages  locales'!$A$2:$P$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fleurs sauvages  locales'!$A$2:$O$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Légumes!$A$2:$Q$69</definedName>
     <definedName name="Z_FB9E0C4D_9EA2_4376_9518_74697D241FD7_.wvu.FilterData" localSheetId="3" hidden="1">Aromatiques!$A$2:$P$33</definedName>
     <definedName name="Z_FB9E0C4D_9EA2_4376_9518_74697D241FD7_.wvu.FilterData" localSheetId="1" hidden="1">'Fleurs horticoles et exotiques'!$A$2:$P$44</definedName>
-    <definedName name="Z_FB9E0C4D_9EA2_4376_9518_74697D241FD7_.wvu.FilterData" localSheetId="0" hidden="1">'Fleurs sauvages  locales'!$A$2:$P$63</definedName>
+    <definedName name="Z_FB9E0C4D_9EA2_4376_9518_74697D241FD7_.wvu.FilterData" localSheetId="0" hidden="1">'Fleurs sauvages  locales'!$A$2:$O$63</definedName>
     <definedName name="Z_FB9E0C4D_9EA2_4376_9518_74697D241FD7_.wvu.FilterData" localSheetId="2" hidden="1">Légumes!$A$2:$Q$44</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="343">
   <si>
     <r>
       <t xml:space="preserve">Fleurs sauvages / locales
@@ -143,13 +143,7 @@
     <t>Vivace</t>
   </si>
   <si>
-    <t>oui, 3-4 sous abri</t>
-  </si>
-  <si>
     <t>Privilégier repiquages repousses</t>
-  </si>
-  <si>
-    <t>S+Mo</t>
   </si>
   <si>
     <t>Oui</t>
@@ -189,9 +183,6 @@
   </si>
   <si>
     <t>Non</t>
-  </si>
-  <si>
-    <t>Mo</t>
   </si>
   <si>
     <t>Anthyllide vulnéraire</t>
@@ -504,9 +495,6 @@
   </si>
   <si>
     <t>Onobrychis viciifolia</t>
-  </si>
-  <si>
-    <t>Vivace courte (3 ans)</t>
   </si>
   <si>
     <t>Saponaire officinale</t>
@@ -1121,22 +1109,22 @@
     <t>Description plus détaillée plante. Condition culture, usages, intérêt écologique.</t>
   </si>
   <si>
-    <t>3-4/9-10</t>
-  </si>
-  <si>
-    <t>3-5/9-10</t>
-  </si>
-  <si>
     <t>9-4</t>
-  </si>
-  <si>
-    <t>4-5/9-10</t>
   </si>
   <si>
     <t>3-5</t>
   </si>
   <si>
-    <t>3-5/8-9</t>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3 courte (3 ans)</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1482,6 +1470,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1811,16 +1802,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH1051"/>
+  <dimension ref="A1:AG1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:E7"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1837,32 +1828,31 @@
     <col min="13" max="13" width="28.5703125" customWidth="1"/>
     <col min="14" max="14" width="19.85546875" customWidth="1"/>
     <col min="15" max="15" width="54.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="51" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="38"/>
       <c r="S1" s="38"/>
@@ -1880,9 +1870,8 @@
       <c r="AE1" s="38"/>
       <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-    </row>
-    <row r="2" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1928,9 +1917,7 @@
       <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -1948,24 +1935,23 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7">
         <f ca="1">RANDBETWEEN(0,14)</f>
         <v>4</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>37</v>
+      <c r="E3" s="18">
+        <v>2</v>
       </c>
       <c r="F3" s="13">
         <v>6</v>
@@ -1979,17 +1965,19 @@
       <c r="I3" s="9">
         <v>44080</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="18" t="s">
-        <v>25</v>
+      <c r="L3" s="18">
+        <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="N3" s="7" t="s">
-        <v>26</v>
+      <c r="N3" s="7">
+        <v>1</v>
       </c>
       <c r="O3" s="10"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
@@ -2007,15 +1995,14 @@
       <c r="AE3" s="38"/>
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-    </row>
-    <row r="4" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B54" ca="1" si="0">RANDBETWEEN(0,14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>20</v>
@@ -2023,8 +2010,8 @@
       <c r="D4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>22</v>
+      <c r="E4" s="18">
+        <v>3</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -2038,21 +2025,21 @@
       <c r="I4" s="9">
         <v>44017</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>25</v>
+      <c r="L4" s="18">
+        <v>4</v>
       </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="7" t="s">
-        <v>26</v>
+      <c r="N4" s="7">
+        <v>1</v>
       </c>
       <c r="O4" s="10"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
@@ -2070,24 +2057,23 @@
       <c r="AE4" s="38"/>
       <c r="AF4" s="38"/>
       <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-    </row>
-    <row r="5" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="18">
+        <v>3</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
@@ -2101,17 +2087,19 @@
       <c r="I5" s="9">
         <v>44082</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="18" t="s">
-        <v>30</v>
+      <c r="L5" s="18">
+        <v>1</v>
       </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="7" t="s">
-        <v>26</v>
+      <c r="N5" s="7">
+        <v>1</v>
       </c>
       <c r="O5" s="10"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -2129,24 +2117,23 @@
       <c r="AE5" s="38"/>
       <c r="AF5" s="38"/>
       <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-    </row>
-    <row r="6" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3</v>
       </c>
       <c r="F6" s="12">
         <v>3</v>
@@ -2158,17 +2145,19 @@
         <v>100</v>
       </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="18" t="s">
-        <v>25</v>
+      <c r="L6" s="18">
+        <v>4</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="N6" s="7" t="s">
-        <v>26</v>
+      <c r="N6" s="7">
+        <v>1</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
@@ -2186,24 +2175,23 @@
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-    </row>
-    <row r="7" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
@@ -2217,19 +2205,19 @@
       <c r="I7" s="9">
         <v>44080</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>38</v>
+      <c r="J7" s="18">
+        <v>0</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="18" t="s">
-        <v>39</v>
+      <c r="L7" s="18">
+        <v>2</v>
       </c>
       <c r="M7" s="18"/>
-      <c r="N7" s="7" t="s">
-        <v>26</v>
+      <c r="N7" s="7">
+        <v>1</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
@@ -2247,24 +2235,23 @@
       <c r="AE7" s="38"/>
       <c r="AF7" s="38"/>
       <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-    </row>
-    <row r="8" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3</v>
       </c>
       <c r="F8" s="11">
         <v>2</v>
@@ -2275,20 +2262,22 @@
       <c r="H8" s="18">
         <v>30</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="18" t="s">
-        <v>30</v>
+      <c r="L8" s="18">
+        <v>1</v>
       </c>
       <c r="M8" s="18"/>
-      <c r="N8" s="7" t="s">
-        <v>26</v>
+      <c r="N8" s="7">
+        <v>1</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
@@ -2306,24 +2295,23 @@
       <c r="AE8" s="38"/>
       <c r="AF8" s="38"/>
       <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-    </row>
-    <row r="9" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
       </c>
       <c r="F9" s="11">
         <v>2</v>
@@ -2337,17 +2325,19 @@
       <c r="I9" s="9">
         <v>44108</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
       <c r="K9" s="10"/>
-      <c r="L9" s="18" t="s">
-        <v>39</v>
+      <c r="L9" s="18">
+        <v>2</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
-        <v>26</v>
+      <c r="N9" s="7">
+        <v>1</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
@@ -2365,24 +2355,23 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
       <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-    </row>
-    <row r="10" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>49</v>
+      <c r="E10" s="18">
+        <v>1</v>
       </c>
       <c r="F10" s="14">
         <v>5</v>
@@ -2393,22 +2382,24 @@
       <c r="H10" s="18">
         <v>60</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J10" s="18"/>
+      <c r="I10" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
       <c r="K10" s="10"/>
-      <c r="L10" s="18" t="s">
-        <v>30</v>
+      <c r="L10" s="18">
+        <v>1</v>
       </c>
       <c r="M10" s="18"/>
-      <c r="N10" s="7" t="s">
-        <v>26</v>
+      <c r="N10" s="7">
+        <v>1</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
@@ -2426,24 +2417,23 @@
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
       <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-    </row>
-    <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
       </c>
       <c r="F11" s="11">
         <v>2</v>
@@ -2457,19 +2447,19 @@
       <c r="I11" s="9">
         <v>43985</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>38</v>
+      <c r="J11" s="18">
+        <v>0</v>
       </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="18" t="s">
-        <v>25</v>
+      <c r="L11" s="18">
+        <v>4</v>
       </c>
       <c r="M11" s="18"/>
-      <c r="N11" s="7" t="s">
-        <v>26</v>
+      <c r="N11" s="7">
+        <v>1</v>
       </c>
       <c r="O11" s="10"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
@@ -2487,24 +2477,23 @@
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-    </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2</v>
       </c>
       <c r="F12" s="11">
         <v>2</v>
@@ -2515,22 +2504,22 @@
       <c r="H12" s="18">
         <v>100</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>38</v>
+      <c r="I12" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
       </c>
       <c r="K12" s="10"/>
-      <c r="L12" s="18" t="s">
-        <v>25</v>
+      <c r="L12" s="18">
+        <v>4</v>
       </c>
       <c r="M12" s="18"/>
-      <c r="N12" s="7" t="s">
-        <v>26</v>
+      <c r="N12" s="7">
+        <v>1</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
@@ -2548,24 +2537,23 @@
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
       <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="18">
         <v>1</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="14">
         <v>5</v>
@@ -2579,21 +2567,23 @@
       <c r="I13" s="9">
         <v>43954</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
       <c r="K13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="L13" s="18">
+        <v>4</v>
       </c>
       <c r="M13" s="18"/>
-      <c r="N13" s="7" t="s">
-        <v>26</v>
+      <c r="N13" s="7">
+        <v>1</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -2611,24 +2601,23 @@
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>22</v>
+      <c r="E14" s="18">
+        <v>3</v>
       </c>
       <c r="F14" s="11">
         <v>2</v>
@@ -2639,24 +2628,26 @@
       <c r="H14" s="18">
         <v>50</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J14" s="18"/>
+      <c r="I14" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
       <c r="K14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="L14" s="18">
+        <v>1</v>
       </c>
       <c r="M14" s="18"/>
-      <c r="N14" s="7" t="s">
-        <v>26</v>
+      <c r="N14" s="7">
+        <v>1</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -2674,24 +2665,23 @@
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>49</v>
+      <c r="E15" s="18">
+        <v>1</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -2702,20 +2692,22 @@
       <c r="H15" s="18">
         <v>40</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J15" s="18"/>
+      <c r="I15" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="18" t="s">
-        <v>30</v>
+      <c r="L15" s="18">
+        <v>1</v>
       </c>
       <c r="M15" s="18"/>
-      <c r="N15" s="7" t="s">
-        <v>67</v>
+      <c r="N15" s="7">
+        <v>0</v>
       </c>
       <c r="O15" s="10"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
@@ -2733,24 +2725,23 @@
       <c r="AE15" s="38"/>
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="E16" s="18">
+        <v>3</v>
       </c>
       <c r="F16" s="12">
         <v>3</v>
@@ -2761,22 +2752,24 @@
       <c r="H16" s="18">
         <v>60</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J16" s="18"/>
+      <c r="I16" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
       <c r="K16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="L16" s="18">
+        <v>4</v>
       </c>
       <c r="M16" s="18"/>
-      <c r="N16" s="7" t="s">
-        <v>26</v>
+      <c r="N16" s="7">
+        <v>1</v>
       </c>
       <c r="O16" s="10"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
@@ -2794,24 +2787,23 @@
       <c r="AE16" s="38"/>
       <c r="AF16" s="38"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-    </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
       </c>
       <c r="F17" s="12">
         <v>3</v>
@@ -2825,34 +2817,35 @@
       <c r="I17" s="9">
         <v>44080</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="18" t="s">
-        <v>30</v>
+      <c r="L17" s="18">
+        <v>1</v>
       </c>
       <c r="M17" s="18"/>
-      <c r="N17" s="7" t="s">
-        <v>26</v>
+      <c r="N17" s="7">
+        <v>1</v>
       </c>
       <c r="O17" s="10"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
@@ -2866,34 +2859,35 @@
       <c r="I18" s="9">
         <v>44079</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="18" t="s">
-        <v>25</v>
+      <c r="L18" s="18">
+        <v>4</v>
       </c>
       <c r="M18" s="18"/>
-      <c r="N18" s="7" t="s">
-        <v>26</v>
+      <c r="N18" s="7">
+        <v>1</v>
       </c>
       <c r="O18" s="10"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>22</v>
+      <c r="E19" s="18">
+        <v>3</v>
       </c>
       <c r="F19" s="12">
         <v>3</v>
@@ -2904,37 +2898,38 @@
       <c r="H19" s="18">
         <v>70</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" s="18"/>
+      <c r="I19" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="18" t="s">
-        <v>25</v>
+      <c r="L19" s="18">
+        <v>4</v>
       </c>
       <c r="M19" s="18"/>
-      <c r="N19" s="7" t="s">
-        <v>26</v>
+      <c r="N19" s="7">
+        <v>1</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>22</v>
+      <c r="E20" s="18">
+        <v>3</v>
       </c>
       <c r="F20" s="15">
         <v>5</v>
@@ -2945,31 +2940,32 @@
       <c r="H20" s="18">
         <v>120</v>
       </c>
-      <c r="I20" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="18"/>
+      <c r="I20" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
       <c r="K20" s="10"/>
-      <c r="L20" s="18" t="s">
-        <v>30</v>
+      <c r="L20" s="18">
+        <v>1</v>
       </c>
       <c r="M20" s="18"/>
-      <c r="N20" s="7" t="s">
-        <v>26</v>
+      <c r="N20" s="7">
+        <v>1</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2979,34 +2975,35 @@
       <c r="G21" s="9"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
       <c r="K21" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
-      <c r="N21" s="7" t="s">
-        <v>26</v>
+      <c r="N21" s="7">
+        <v>1</v>
       </c>
       <c r="O21" s="10"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>49</v>
+        <v>83</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="9">
@@ -3016,38 +3013,39 @@
         <v>50</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="J22" s="18"/>
+        <v>337</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
       <c r="K22" s="10"/>
-      <c r="L22" s="18" t="s">
-        <v>30</v>
+      <c r="L22" s="18">
+        <v>1</v>
       </c>
       <c r="M22" s="18"/>
-      <c r="N22" s="7" t="s">
-        <v>26</v>
+      <c r="N22" s="7">
+        <v>1</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="18">
+        <v>3</v>
       </c>
       <c r="F23" s="11">
         <v>2</v>
@@ -3056,39 +3054,40 @@
         <v>44111</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
       <c r="K23" s="10"/>
-      <c r="L23" s="18" t="s">
-        <v>30</v>
+      <c r="L23" s="18">
+        <v>1</v>
       </c>
       <c r="M23" s="18"/>
-      <c r="N23" s="7" t="s">
-        <v>26</v>
+      <c r="N23" s="7">
+        <v>1</v>
       </c>
       <c r="O23" s="10"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>22</v>
+        <v>89</v>
+      </c>
+      <c r="E24" s="18">
+        <v>3</v>
       </c>
       <c r="F24" s="8">
         <v>1</v>
@@ -3099,39 +3098,40 @@
       <c r="H24" s="18">
         <v>60</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J24" s="18"/>
+      <c r="I24" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
       <c r="K24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="L24" s="18">
+        <v>1</v>
       </c>
       <c r="M24" s="18"/>
-      <c r="N24" s="7" t="s">
-        <v>26</v>
+      <c r="N24" s="7">
+        <v>1</v>
       </c>
       <c r="O24" s="10"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B25" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>37</v>
+        <v>92</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
       </c>
       <c r="F25" s="11">
         <v>2</v>
@@ -3145,36 +3145,37 @@
       <c r="I25" s="9">
         <v>44080</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
       <c r="K25" s="10"/>
-      <c r="L25" s="18" t="s">
-        <v>30</v>
+      <c r="L25" s="18">
+        <v>1</v>
       </c>
       <c r="M25" s="18"/>
-      <c r="N25" s="7" t="s">
-        <v>26</v>
+      <c r="N25" s="7">
+        <v>1</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="E26" s="18">
+        <v>3</v>
       </c>
       <c r="F26" s="11">
         <v>2</v>
@@ -3185,37 +3186,38 @@
       <c r="H26" s="18">
         <v>40</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J26" s="18"/>
+      <c r="I26" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
       <c r="K26" s="10"/>
-      <c r="L26" s="18" t="s">
-        <v>25</v>
+      <c r="L26" s="18">
+        <v>4</v>
       </c>
       <c r="M26" s="18"/>
-      <c r="N26" s="7" t="s">
-        <v>26</v>
+      <c r="N26" s="7">
+        <v>1</v>
       </c>
       <c r="O26" s="10"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="18">
         <v>3</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>1</v>
@@ -3224,43 +3226,44 @@
         <v>44080</v>
       </c>
       <c r="H27" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="18">
+        <v>4</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="B28" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="18">
         <v>3</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="F28" s="11">
         <v>2</v>
@@ -3271,39 +3274,40 @@
       <c r="H28" s="18">
         <v>40</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J28" s="18"/>
+      <c r="I28" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
       <c r="K28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1</v>
       </c>
       <c r="M28" s="18"/>
-      <c r="N28" s="7" t="s">
-        <v>26</v>
+      <c r="N28" s="7">
+        <v>1</v>
       </c>
       <c r="O28" s="10"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="18">
         <v>3</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="F29" s="17">
         <v>7</v>
@@ -3312,39 +3316,40 @@
         <v>44110</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I29" s="9">
         <v>44113</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
       <c r="K29" s="10"/>
-      <c r="L29" s="18" t="s">
-        <v>30</v>
+      <c r="L29" s="18">
+        <v>1</v>
       </c>
       <c r="M29" s="18"/>
-      <c r="N29" s="7" t="s">
-        <v>111</v>
+      <c r="N29" s="7">
+        <v>1</v>
       </c>
       <c r="O29" s="10"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>22</v>
+        <v>106</v>
+      </c>
+      <c r="E30" s="18">
+        <v>3</v>
       </c>
       <c r="F30" s="12">
         <v>3</v>
@@ -3355,37 +3360,38 @@
       <c r="H30" s="18">
         <v>60</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J30" s="18"/>
+      <c r="I30" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
       <c r="K30" s="10"/>
-      <c r="L30" s="18" t="s">
-        <v>25</v>
+      <c r="L30" s="18">
+        <v>4</v>
       </c>
       <c r="M30" s="18"/>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="B31" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>22</v>
+        <v>106</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3</v>
       </c>
       <c r="F31" s="12">
         <v>3</v>
@@ -3396,39 +3402,40 @@
       <c r="H31" s="18">
         <v>90</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J31" s="18"/>
+      <c r="I31" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
       <c r="K31" s="10"/>
-      <c r="L31" s="18" t="s">
-        <v>25</v>
+      <c r="L31" s="18">
+        <v>4</v>
       </c>
       <c r="M31" s="18"/>
-      <c r="N31" s="7" t="s">
-        <v>111</v>
+      <c r="N31" s="7">
+        <v>1</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="18">
         <v>2</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="F32" s="11">
         <v>2</v>
@@ -3442,34 +3449,35 @@
       <c r="I32" s="9">
         <v>44079</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
       <c r="K32" s="10"/>
-      <c r="L32" s="18" t="s">
-        <v>30</v>
+      <c r="L32" s="18">
+        <v>1</v>
       </c>
       <c r="M32" s="18"/>
-      <c r="N32" s="7" t="s">
-        <v>111</v>
+      <c r="N32" s="7">
+        <v>1</v>
       </c>
       <c r="O32" s="10"/>
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B33" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
       </c>
       <c r="F33" s="18">
         <v>1</v>
@@ -3483,34 +3491,35 @@
       <c r="I33" s="9">
         <v>44079</v>
       </c>
-      <c r="J33" s="18"/>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="18" t="s">
-        <v>30</v>
+      <c r="L33" s="18">
+        <v>1</v>
       </c>
       <c r="M33" s="18"/>
-      <c r="N33" s="7" t="s">
-        <v>111</v>
+      <c r="N33" s="7">
+        <v>1</v>
       </c>
       <c r="O33" s="10"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="E34" s="18">
+        <v>3</v>
       </c>
       <c r="F34" s="11">
         <v>2</v>
@@ -3521,37 +3530,38 @@
       <c r="H34" s="18">
         <v>60</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J34" s="18"/>
+      <c r="I34" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="18" t="s">
-        <v>25</v>
+      <c r="L34" s="18">
+        <v>4</v>
       </c>
       <c r="M34" s="18"/>
-      <c r="N34" s="7" t="s">
-        <v>111</v>
+      <c r="N34" s="7">
+        <v>1</v>
       </c>
       <c r="O34" s="10"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B35" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2</v>
       </c>
       <c r="F35" s="12">
         <v>3</v>
@@ -3565,34 +3575,35 @@
       <c r="I35" s="9">
         <v>44080</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
       <c r="K35" s="10"/>
-      <c r="L35" s="18" t="s">
-        <v>39</v>
+      <c r="L35" s="18">
+        <v>2</v>
       </c>
       <c r="M35" s="18"/>
-      <c r="N35" s="7" t="s">
-        <v>111</v>
+      <c r="N35" s="7">
+        <v>1</v>
       </c>
       <c r="O35" s="10"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="18">
         <v>1</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="F36" s="11">
         <v>2</v>
@@ -3604,27 +3615,28 @@
         <v>80</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="J36" s="18"/>
+        <v>338</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
       <c r="K36" s="18"/>
-      <c r="L36" s="18" t="s">
-        <v>30</v>
+      <c r="L36" s="18">
+        <v>1</v>
       </c>
       <c r="M36" s="18"/>
-      <c r="N36" s="7" t="s">
-        <v>111</v>
+      <c r="N36" s="7">
+        <v>1</v>
       </c>
       <c r="O36" s="18"/>
-      <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="18"/>
@@ -3635,32 +3647,33 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
       <c r="K37" s="10"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="7" t="s">
-        <v>111</v>
+      <c r="N37" s="7">
+        <v>1</v>
       </c>
       <c r="O37" s="10"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>49</v>
+        <v>128</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1</v>
       </c>
       <c r="F38" s="12">
         <v>3</v>
@@ -3671,66 +3684,66 @@
       <c r="H38" s="18">
         <v>80</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J38" s="18"/>
+      <c r="I38" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
       <c r="K38" s="10"/>
-      <c r="L38" s="18" t="s">
-        <v>30</v>
+      <c r="L38" s="18">
+        <v>1</v>
       </c>
       <c r="M38" s="18"/>
-      <c r="N38" s="7" t="s">
-        <v>111</v>
+      <c r="N38" s="7">
+        <v>1</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B39" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="18">
-        <v>0</v>
-      </c>
+      <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
       <c r="K39" s="10"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
-      <c r="N39" s="7" t="s">
-        <v>111</v>
+      <c r="N39" s="7">
+        <v>1</v>
       </c>
       <c r="O39" s="10"/>
-      <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B40" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="E40" s="18">
+        <v>3</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="9">
@@ -3739,37 +3752,38 @@
       <c r="H40" s="18">
         <v>50</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J40" s="18"/>
+      <c r="I40" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
       <c r="K40" s="10"/>
-      <c r="L40" s="18" t="s">
-        <v>25</v>
+      <c r="L40" s="18">
+        <v>4</v>
       </c>
       <c r="M40" s="18"/>
-      <c r="N40" s="7" t="s">
-        <v>111</v>
+      <c r="N40" s="7">
+        <v>1</v>
       </c>
       <c r="O40" s="10"/>
-      <c r="P40" s="7"/>
-    </row>
-    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B41" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>22</v>
+      <c r="E41" s="18">
+        <v>3</v>
       </c>
       <c r="F41" s="11">
         <v>2</v>
@@ -3780,66 +3794,66 @@
       <c r="H41" s="18">
         <v>30</v>
       </c>
-      <c r="I41" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J41" s="18"/>
+      <c r="I41" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J41" s="18">
+        <v>0</v>
+      </c>
       <c r="K41" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>25</v>
+        <v>134</v>
+      </c>
+      <c r="L41" s="18">
+        <v>4</v>
       </c>
       <c r="M41" s="18"/>
-      <c r="N41" s="7" t="s">
-        <v>111</v>
+      <c r="N41" s="7">
+        <v>1</v>
       </c>
       <c r="O41" s="10"/>
-      <c r="P41" s="7"/>
-    </row>
-    <row r="42" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B42" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="18">
-        <v>0</v>
-      </c>
+      <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
       <c r="K42" s="10"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
-      <c r="N42" s="7" t="s">
-        <v>111</v>
+      <c r="N42" s="7">
+        <v>1</v>
       </c>
       <c r="O42" s="10"/>
-      <c r="P42" s="7"/>
-    </row>
-    <row r="43" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="E43" s="18">
+        <v>3</v>
       </c>
       <c r="F43" s="12">
         <v>3</v>
@@ -3850,39 +3864,40 @@
       <c r="H43" s="18">
         <v>200</v>
       </c>
-      <c r="I43" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="J43" s="18"/>
+      <c r="I43" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" s="18">
+        <v>0</v>
+      </c>
       <c r="K43" s="10"/>
-      <c r="L43" s="18" t="s">
-        <v>30</v>
+      <c r="L43" s="18">
+        <v>1</v>
       </c>
       <c r="M43" s="18"/>
-      <c r="N43" s="7" t="s">
-        <v>111</v>
+      <c r="N43" s="7">
+        <v>1</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="P43" s="7"/>
-    </row>
-    <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="E44" s="18">
+        <v>3</v>
       </c>
       <c r="F44" s="17">
         <v>7</v>
@@ -3893,39 +3908,40 @@
       <c r="H44" s="18">
         <v>60</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" s="18">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="18">
+        <v>1</v>
+      </c>
+      <c r="M44" s="18"/>
+      <c r="N44" s="7">
+        <v>1</v>
+      </c>
+      <c r="O44" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="P44" s="7"/>
-    </row>
-    <row r="45" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B45" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="E45" s="18">
+        <v>3</v>
       </c>
       <c r="F45" s="17">
         <v>7</v>
@@ -3936,39 +3952,40 @@
       <c r="H45" s="18">
         <v>60</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J45" s="18"/>
+      <c r="I45" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="18">
+        <v>0</v>
+      </c>
       <c r="K45" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>25</v>
+        <v>144</v>
+      </c>
+      <c r="L45" s="18">
+        <v>4</v>
       </c>
       <c r="M45" s="18"/>
-      <c r="N45" s="7" t="s">
-        <v>111</v>
+      <c r="N45" s="7">
+        <v>1</v>
       </c>
       <c r="O45" s="10"/>
-      <c r="P45" s="7"/>
-    </row>
-    <row r="46" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B46" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2</v>
       </c>
       <c r="F46" s="17">
         <v>7</v>
@@ -3982,38 +3999,39 @@
       <c r="I46" s="9">
         <v>44078</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="18">
+        <v>0</v>
+      </c>
       <c r="K46" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1</v>
       </c>
       <c r="M46" s="18"/>
-      <c r="N46" s="7" t="s">
-        <v>111</v>
+      <c r="N46" s="7">
+        <v>1</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B47" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E47" s="18">
+        <v>3</v>
       </c>
       <c r="F47" s="20">
         <v>7</v>
@@ -4024,39 +4042,38 @@
       <c r="H47" s="18">
         <v>60</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>26</v>
+      <c r="I47" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1</v>
       </c>
       <c r="K47" s="10"/>
-      <c r="L47" s="18" t="s">
-        <v>30</v>
+      <c r="L47" s="18">
+        <v>1</v>
       </c>
       <c r="M47" s="18"/>
-      <c r="N47" s="7" t="s">
-        <v>111</v>
+      <c r="N47" s="7">
+        <v>1</v>
       </c>
       <c r="O47" s="10"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B48" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>22</v>
+        <v>152</v>
+      </c>
+      <c r="E48" s="18">
+        <v>3</v>
       </c>
       <c r="F48" s="17">
         <v>7</v>
@@ -4067,39 +4084,38 @@
       <c r="H48" s="18">
         <v>70</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>26</v>
+      <c r="I48" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1</v>
       </c>
       <c r="K48" s="10"/>
-      <c r="L48" s="18" t="s">
-        <v>30</v>
+      <c r="L48" s="18">
+        <v>1</v>
       </c>
       <c r="M48" s="18"/>
-      <c r="N48" s="7" t="s">
-        <v>111</v>
+      <c r="N48" s="7">
+        <v>1</v>
       </c>
       <c r="O48" s="10"/>
-      <c r="P48" s="7"/>
-    </row>
-    <row r="49" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B49" s="7">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="18">
         <v>3</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="F49" s="18">
         <v>1</v>
@@ -4110,37 +4126,38 @@
       <c r="H49" s="18">
         <v>50</v>
       </c>
-      <c r="I49" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J49" s="18"/>
+      <c r="I49" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" s="18">
+        <v>0</v>
+      </c>
       <c r="K49" s="10"/>
-      <c r="L49" s="18" t="s">
-        <v>25</v>
+      <c r="L49" s="18">
+        <v>4</v>
       </c>
       <c r="M49" s="18"/>
-      <c r="N49" s="7" t="s">
-        <v>111</v>
+      <c r="N49" s="7">
+        <v>1</v>
       </c>
       <c r="O49" s="10"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B50" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>22</v>
+        <v>89</v>
+      </c>
+      <c r="E50" s="18">
+        <v>3</v>
       </c>
       <c r="F50" s="11">
         <v>2</v>
@@ -4151,39 +4168,40 @@
       <c r="H50" s="18">
         <v>80</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="J50" s="18"/>
+      <c r="I50" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J50" s="18">
+        <v>0</v>
+      </c>
       <c r="K50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="L50" s="18">
+        <v>1</v>
       </c>
       <c r="M50" s="18"/>
-      <c r="N50" s="7" t="s">
-        <v>111</v>
+      <c r="N50" s="7">
+        <v>1</v>
       </c>
       <c r="O50" s="10"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B51" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>49</v>
+        <v>89</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
@@ -4192,41 +4210,40 @@
         <v>44081</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9">
         <v>43986</v>
       </c>
-      <c r="J51" s="18" t="s">
-        <v>38</v>
+      <c r="J51" s="18">
+        <v>0</v>
       </c>
       <c r="K51" s="10"/>
-      <c r="L51" s="18" t="s">
-        <v>30</v>
+      <c r="L51" s="18">
+        <v>1</v>
       </c>
       <c r="M51" s="18"/>
-      <c r="N51" s="7" t="s">
-        <v>111</v>
+      <c r="N51" s="7">
+        <v>1</v>
       </c>
       <c r="O51" s="10"/>
-      <c r="P51" s="7"/>
-    </row>
-    <row r="52" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B52" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1</v>
       </c>
       <c r="F52" s="17">
         <v>7</v>
@@ -4235,41 +4252,42 @@
         <v>44017</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="J52" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="I52" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0</v>
+      </c>
       <c r="K52" s="10"/>
-      <c r="L52" s="18" t="s">
-        <v>25</v>
+      <c r="L52" s="18">
+        <v>4</v>
       </c>
       <c r="M52" s="18"/>
-      <c r="N52" s="7" t="s">
-        <v>111</v>
+      <c r="N52" s="7">
+        <v>1</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B53" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="E53" s="18">
+        <v>3</v>
       </c>
       <c r="F53" s="17">
         <v>7</v>
@@ -4278,41 +4296,42 @@
         <v>44049</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="J53" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="I53" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0</v>
+      </c>
       <c r="K53" s="10"/>
-      <c r="L53" s="18" t="s">
-        <v>25</v>
+      <c r="L53" s="18">
+        <v>4</v>
       </c>
       <c r="M53" s="18"/>
-      <c r="N53" s="7" t="s">
-        <v>111</v>
+      <c r="N53" s="7">
+        <v>1</v>
       </c>
       <c r="O53" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="P53" s="7"/>
-    </row>
-    <row r="54" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="B54" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2</v>
       </c>
       <c r="F54" s="20">
         <v>7</v>
@@ -4326,21 +4345,20 @@
       <c r="I54" s="9">
         <v>44080</v>
       </c>
-      <c r="J54" s="18" t="s">
-        <v>38</v>
+      <c r="J54" s="18">
+        <v>0</v>
       </c>
       <c r="K54" s="10"/>
-      <c r="L54" s="18" t="s">
-        <v>30</v>
+      <c r="L54" s="18">
+        <v>1</v>
       </c>
       <c r="M54" s="18"/>
-      <c r="N54" s="7" t="s">
-        <v>111</v>
+      <c r="N54" s="7">
+        <v>1</v>
       </c>
       <c r="O54" s="10"/>
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
       <c r="B55" s="7"/>
       <c r="C55" s="19"/>
@@ -4356,9 +4374,8 @@
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="O55" s="10"/>
-      <c r="P55" s="7"/>
-    </row>
-    <row r="56" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
       <c r="B56" s="7"/>
       <c r="C56" s="19"/>
@@ -4374,9 +4391,8 @@
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
       <c r="O56" s="10"/>
-      <c r="P56" s="7"/>
-    </row>
-    <row r="57" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="7"/>
       <c r="C57" s="19"/>
@@ -4392,9 +4408,8 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="O57" s="10"/>
-      <c r="P57" s="7"/>
-    </row>
-    <row r="58" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
@@ -4410,9 +4425,8 @@
       <c r="M58" s="18"/>
       <c r="N58" s="18"/>
       <c r="O58" s="10"/>
-      <c r="P58" s="7"/>
-    </row>
-    <row r="59" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
@@ -4428,9 +4442,8 @@
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
       <c r="O59" s="10"/>
-      <c r="P59" s="7"/>
-    </row>
-    <row r="60" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -4446,9 +4459,8 @@
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="22"/>
@@ -4464,9 +4476,8 @@
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
       <c r="O61" s="10"/>
-      <c r="P61" s="7"/>
-    </row>
-    <row r="62" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -4482,9 +4493,8 @@
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
       <c r="O62" s="10"/>
-      <c r="P62" s="7"/>
-    </row>
-    <row r="63" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -4500,9 +4510,8 @@
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
       <c r="O63" s="10"/>
-      <c r="P63" s="7"/>
-    </row>
-    <row r="64" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -4518,7 +4527,6 @@
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
@@ -21300,8 +21308,8 @@
       <c r="O1051" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P63" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P63">
+  <autoFilter ref="A2:O63" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O63">
       <sortCondition sortBy="cellColor" ref="F2:F63" dxfId="0"/>
     </sortState>
   </autoFilter>
@@ -21329,7 +21337,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21369,25 +21377,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="53" t="s">
+      <c r="A1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="54" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="25"/>
       <c r="O1" s="26"/>
       <c r="P1" s="25"/>
@@ -21436,10 +21444,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -21480,7 +21488,7 @@
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="19"/>
@@ -21497,7 +21505,7 @@
       <c r="N3" s="7"/>
       <c r="O3" s="10"/>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
@@ -21520,7 +21528,7 @@
     </row>
     <row r="4" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="18"/>
@@ -21537,7 +21545,7 @@
       <c r="N4" s="7"/>
       <c r="O4" s="10"/>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
@@ -21560,7 +21568,7 @@
     </row>
     <row r="5" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="18"/>
@@ -21575,11 +21583,11 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -21602,7 +21610,7 @@
     </row>
     <row r="6" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="18"/>
@@ -21619,7 +21627,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="10"/>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
@@ -21642,7 +21650,7 @@
     </row>
     <row r="7" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="18"/>
@@ -21659,7 +21667,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="10"/>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
@@ -21682,7 +21690,7 @@
     </row>
     <row r="8" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="18"/>
@@ -21699,7 +21707,7 @@
       <c r="N8" s="27"/>
       <c r="O8" s="10"/>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
@@ -21722,7 +21730,7 @@
     </row>
     <row r="9" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="18"/>
@@ -21739,7 +21747,7 @@
       <c r="N9" s="27"/>
       <c r="O9" s="10"/>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
@@ -21762,7 +21770,7 @@
     </row>
     <row r="10" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="18"/>
@@ -21779,7 +21787,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="10"/>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
@@ -21802,7 +21810,7 @@
     </row>
     <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="18"/>
@@ -21819,7 +21827,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="10"/>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
@@ -21842,7 +21850,7 @@
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="18"/>
@@ -21859,7 +21867,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="10"/>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
@@ -21882,7 +21890,7 @@
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="18"/>
@@ -21899,7 +21907,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="10"/>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
@@ -21922,7 +21930,7 @@
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="18"/>
@@ -21939,7 +21947,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="10"/>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -21962,7 +21970,7 @@
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="18"/>
@@ -21979,7 +21987,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="10"/>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
@@ -22002,7 +22010,7 @@
     </row>
     <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="18"/>
@@ -22019,7 +22027,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="10"/>
       <c r="P16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
@@ -22042,7 +22050,7 @@
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -22059,12 +22067,12 @@
       <c r="N17" s="7"/>
       <c r="O17" s="10"/>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="18"/>
@@ -22079,16 +22087,16 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="18"/>
@@ -22105,12 +22113,12 @@
       <c r="N19" s="7"/>
       <c r="O19" s="10"/>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="18"/>
@@ -22127,12 +22135,12 @@
       <c r="N20" s="7"/>
       <c r="O20" s="10"/>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="18"/>
@@ -22149,12 +22157,12 @@
       <c r="N21" s="7"/>
       <c r="O21" s="10"/>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="18"/>
@@ -22171,12 +22179,12 @@
       <c r="N22" s="7"/>
       <c r="O22" s="10"/>
       <c r="P22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="18"/>
@@ -22193,12 +22201,12 @@
       <c r="N23" s="7"/>
       <c r="O23" s="10"/>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="18"/>
@@ -22213,16 +22221,16 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="18"/>
@@ -22239,12 +22247,12 @@
       <c r="N25" s="7"/>
       <c r="O25" s="10"/>
       <c r="P25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="18"/>
@@ -22261,12 +22269,12 @@
       <c r="N26" s="7"/>
       <c r="O26" s="10"/>
       <c r="P26" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="18"/>
@@ -22281,16 +22289,16 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O27" s="10"/>
       <c r="P27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="18"/>
@@ -22307,12 +22315,12 @@
       <c r="N28" s="7"/>
       <c r="O28" s="10"/>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="18"/>
@@ -22329,12 +22337,12 @@
       <c r="N29" s="7"/>
       <c r="O29" s="10"/>
       <c r="P29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="18"/>
@@ -22349,16 +22357,16 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="19"/>
@@ -22375,12 +22383,12 @@
       <c r="N31" s="7"/>
       <c r="O31" s="10"/>
       <c r="P31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="19"/>
@@ -22397,12 +22405,12 @@
       <c r="N32" s="7"/>
       <c r="O32" s="10"/>
       <c r="P32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -22419,12 +22427,12 @@
       <c r="N33" s="7"/>
       <c r="O33" s="10"/>
       <c r="P33" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -22439,16 +22447,16 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="10"/>
       <c r="P34" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="19"/>
@@ -22463,11 +22471,11 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -39503,18 +39511,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="55" t="s">
+      <c r="A1" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
@@ -39547,13 +39555,13 @@
     </row>
     <row r="2" spans="1:35" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -39565,22 +39573,22 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>14</v>
@@ -39618,11 +39626,11 @@
     </row>
     <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="18"/>
@@ -39636,11 +39644,11 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
@@ -39663,11 +39671,11 @@
     </row>
     <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -39683,7 +39691,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
@@ -39706,13 +39714,13 @@
     </row>
     <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -39728,7 +39736,7 @@
       <c r="O5" s="18"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -39751,13 +39759,13 @@
     </row>
     <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>225</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -39773,7 +39781,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
@@ -39796,11 +39804,11 @@
     </row>
     <row r="7" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -39814,11 +39822,11 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
@@ -39841,13 +39849,13 @@
     </row>
     <row r="8" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -39861,11 +39869,11 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
@@ -39888,13 +39896,13 @@
     </row>
     <row r="9" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -39908,11 +39916,11 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
@@ -39935,11 +39943,11 @@
     </row>
     <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -39955,7 +39963,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
@@ -39978,10 +39986,10 @@
     </row>
     <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="18"/>
@@ -39996,11 +40004,11 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
@@ -40023,10 +40031,10 @@
     </row>
     <row r="12" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="18"/>
@@ -40041,11 +40049,11 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
@@ -40068,10 +40076,10 @@
     </row>
     <row r="13" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="18"/>
@@ -40088,7 +40096,7 @@
       <c r="O13" s="18"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -40111,13 +40119,13 @@
     </row>
     <row r="14" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -40133,7 +40141,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -40156,13 +40164,13 @@
     </row>
     <row r="15" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>239</v>
-      </c>
       <c r="C15" s="41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -40178,7 +40186,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
@@ -40201,10 +40209,10 @@
     </row>
     <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="18"/>
@@ -40221,7 +40229,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
@@ -40244,13 +40252,13 @@
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -40266,15 +40274,15 @@
       <c r="O17" s="18"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="18"/>
@@ -40289,19 +40297,19 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="18"/>
@@ -40316,19 +40324,19 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="18"/>
@@ -40345,15 +40353,15 @@
       <c r="O20" s="18"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="18"/>
@@ -40368,22 +40376,22 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -40399,18 +40407,18 @@
       <c r="O22" s="18"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -40425,21 +40433,21 @@
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>254</v>
-      </c>
       <c r="C24" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -40454,21 +40462,21 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -40482,24 +40490,24 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -40513,22 +40521,22 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -40542,22 +40550,22 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -40573,15 +40581,15 @@
       <c r="O28" s="18"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="18"/>
@@ -40598,18 +40606,18 @@
       <c r="O29" s="18"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -40625,18 +40633,18 @@
       <c r="O30" s="18"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B31" s="40">
         <v>2016</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="18"/>
@@ -40652,15 +40660,15 @@
       <c r="O31" s="18"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="19"/>
@@ -40676,18 +40684,18 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="40" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="22"/>
@@ -40704,15 +40712,15 @@
       <c r="O33" s="18"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="22"/>
@@ -40729,15 +40737,15 @@
       <c r="O34" s="18"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="19"/>
@@ -40757,13 +40765,13 @@
     </row>
     <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="18"/>
@@ -40782,10 +40790,10 @@
     </row>
     <row r="37" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="19"/>
@@ -40805,13 +40813,13 @@
     </row>
     <row r="38" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="18"/>
@@ -40830,13 +40838,13 @@
     </row>
     <row r="39" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="46"/>
@@ -40855,13 +40863,13 @@
     </row>
     <row r="40" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="46"/>
@@ -40880,13 +40888,13 @@
     </row>
     <row r="41" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="46"/>
@@ -40905,13 +40913,13 @@
     </row>
     <row r="42" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="46"/>
@@ -40930,13 +40938,13 @@
     </row>
     <row r="43" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="46"/>
@@ -40955,10 +40963,10 @@
     </row>
     <row r="44" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="22"/>
@@ -40978,10 +40986,10 @@
     </row>
     <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="38"/>
@@ -41001,13 +41009,13 @@
     </row>
     <row r="46" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
@@ -41026,11 +41034,11 @@
     </row>
     <row r="47" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
@@ -41049,13 +41057,13 @@
     </row>
     <row r="48" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="38"/>
@@ -41074,13 +41082,13 @@
     </row>
     <row r="49" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
@@ -41098,13 +41106,13 @@
     </row>
     <row r="50" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -41122,10 +41130,10 @@
     </row>
     <row r="51" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="41" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="38"/>
@@ -41144,10 +41152,10 @@
     </row>
     <row r="52" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="38"/>
@@ -41166,10 +41174,10 @@
     </row>
     <row r="53" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="38"/>
@@ -41188,13 +41196,13 @@
     </row>
     <row r="54" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
@@ -41212,13 +41220,13 @@
     </row>
     <row r="55" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
@@ -41236,13 +41244,13 @@
     </row>
     <row r="56" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -41260,7 +41268,7 @@
     </row>
     <row r="57" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -41280,10 +41288,10 @@
     </row>
     <row r="58" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="38"/>
@@ -41302,10 +41310,10 @@
     </row>
     <row r="59" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="38"/>
@@ -41324,10 +41332,10 @@
     </row>
     <row r="60" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="38"/>
@@ -41346,10 +41354,10 @@
     </row>
     <row r="61" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>299</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>303</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="38"/>
@@ -41368,10 +41376,10 @@
     </row>
     <row r="62" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="38"/>
@@ -41390,10 +41398,10 @@
     </row>
     <row r="63" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="38"/>
@@ -41412,10 +41420,10 @@
     </row>
     <row r="64" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="38"/>
@@ -41434,13 +41442,13 @@
     </row>
     <row r="65" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D65" s="38"/>
       <c r="E65" s="38"/>
@@ -41458,13 +41466,13 @@
     </row>
     <row r="66" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
@@ -41482,13 +41490,13 @@
     </row>
     <row r="67" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -41506,13 +41514,13 @@
     </row>
     <row r="68" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -41530,13 +41538,13 @@
     </row>
     <row r="69" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
@@ -58174,25 +58182,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="58" t="s">
+      <c r="A1" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="59" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
       <c r="P1" s="32"/>
@@ -58241,10 +58249,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -58285,46 +58293,46 @@
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="9">
         <v>44110</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I3" s="9">
         <v>43955</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
@@ -58347,15 +58355,15 @@
     </row>
     <row r="4" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -58366,11 +58374,11 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
@@ -58393,15 +58401,15 @@
     </row>
     <row r="5" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -58412,11 +58420,11 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -58439,15 +58447,15 @@
     </row>
     <row r="6" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -58458,11 +58466,11 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
@@ -58485,10 +58493,10 @@
     </row>
     <row r="7" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="46"/>
@@ -58504,11 +58512,11 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
@@ -58531,10 +58539,10 @@
     </row>
     <row r="8" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="46"/>
@@ -58550,11 +58558,11 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
@@ -58577,15 +58585,15 @@
     </row>
     <row r="9" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -58596,11 +58604,11 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
@@ -58623,10 +58631,10 @@
     </row>
     <row r="10" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -58642,11 +58650,11 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
@@ -58669,10 +58677,10 @@
     </row>
     <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -58688,11 +58696,11 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
@@ -58715,10 +58723,10 @@
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="18"/>
@@ -58734,11 +58742,11 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
@@ -58761,15 +58769,15 @@
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="46"/>
       <c r="E13" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -58780,11 +58788,11 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
@@ -58807,15 +58815,15 @@
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="46"/>
       <c r="E14" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -58826,11 +58834,11 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -58853,15 +58861,15 @@
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="46"/>
       <c r="E15" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -58872,11 +58880,11 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
@@ -58899,10 +58907,10 @@
     </row>
     <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="46"/>
@@ -58918,11 +58926,11 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
@@ -58945,15 +58953,15 @@
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="46"/>
       <c r="E17" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -58964,24 +58972,24 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="46"/>
       <c r="E18" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -58992,11 +59000,11 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -59713,34 +59721,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
